--- a/SAMPL4-CB7/itc/data/02112015/host-guest-itc.xlsx
+++ b/SAMPL4-CB7/itc/data/02112015/host-guest-itc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>20150211a1</t>
   </si>
@@ -29,24 +29,6 @@
     <t>20150211a12</t>
   </si>
   <si>
-    <t>20150211a13</t>
-  </si>
-  <si>
-    <t>20150211a14</t>
-  </si>
-  <si>
-    <t>20150211a15</t>
-  </si>
-  <si>
-    <t>20150211a16</t>
-  </si>
-  <si>
-    <t>20150211a17</t>
-  </si>
-  <si>
-    <t>20150211a18</t>
-  </si>
-  <si>
     <t>20150211a2</t>
   </si>
   <si>
@@ -116,12 +98,6 @@
     <t>Plate1, A3</t>
   </si>
   <si>
-    <t>Plate1, A4</t>
-  </si>
-  <si>
-    <t>Plate1, A5</t>
-  </si>
-  <si>
     <t>Plate1, B1</t>
   </si>
   <si>
@@ -131,12 +107,6 @@
     <t>Plate1, B3</t>
   </si>
   <si>
-    <t>Plate1, B4</t>
-  </si>
-  <si>
-    <t>Plate1, B5</t>
-  </si>
-  <si>
     <t>Plate1, C1</t>
   </si>
   <si>
@@ -146,12 +116,6 @@
     <t>Plate1, C3</t>
   </si>
   <si>
-    <t>Plate1, C4</t>
-  </si>
-  <si>
-    <t>Plate1, C5</t>
-  </si>
-  <si>
     <t>Plate1, D1</t>
   </si>
   <si>
@@ -161,12 +125,6 @@
     <t>Plate1, D3</t>
   </si>
   <si>
-    <t>Plate1, D4</t>
-  </si>
-  <si>
-    <t>Plate1, D5</t>
-  </si>
-  <si>
     <t>Plate1, E1</t>
   </si>
   <si>
@@ -176,9 +134,6 @@
     <t>Plate1, E3</t>
   </si>
   <si>
-    <t>Plate1, E4</t>
-  </si>
-  <si>
     <t>Plate1, F1</t>
   </si>
   <si>
@@ -188,9 +143,6 @@
     <t>Plate1, F3</t>
   </si>
   <si>
-    <t>Plate1, F4</t>
-  </si>
-  <si>
     <t>Plate1, G1</t>
   </si>
   <si>
@@ -200,9 +152,6 @@
     <t>Plate1, G3</t>
   </si>
   <si>
-    <t>Plate1, G4</t>
-  </si>
-  <si>
     <t>Plate1, H1</t>
   </si>
   <si>
@@ -212,9 +161,6 @@
     <t>Plate1, H3</t>
   </si>
   <si>
-    <t>Plate1, H4</t>
-  </si>
-  <si>
     <t>Plates Quick.setup</t>
   </si>
   <si>
@@ -245,15 +191,6 @@
     <t>buffer into guest04</t>
   </si>
   <si>
-    <t>buffer into guest05</t>
-  </si>
-  <si>
-    <t>buffer into guest06</t>
-  </si>
-  <si>
-    <t>buffer into guest07</t>
-  </si>
-  <si>
     <t>final water into water test 1</t>
   </si>
   <si>
@@ -270,15 +207,6 @@
   </si>
   <si>
     <t>host into guest04</t>
-  </si>
-  <si>
-    <t>host into guest05</t>
-  </si>
-  <si>
-    <t>host into guest06</t>
-  </si>
-  <si>
-    <t>host into guest07</t>
   </si>
   <si>
     <t>water into water 1</t>
@@ -617,7 +545,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,37 +568,37 @@
   <sheetData>
     <row spans="1:11" r="1">
       <c t="s" r="A1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c t="s" r="B1">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c t="s" r="C1">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c t="s" r="D1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c t="s" r="E1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c t="s" r="F1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c t="s" r="G1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c t="s" r="H1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c t="s" r="I1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c t="s" r="J1">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c t="s" r="K1">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row spans="1:11" r="2">
@@ -678,48 +606,48 @@
         <v>0</v>
       </c>
       <c t="s" r="B2">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c t="s" r="C2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c t="s" r="D2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c t="s" r="E2">
+        <v>18</v>
+      </c>
+      <c t="n" r="F2">
+        <v>0</v>
+      </c>
+      <c t="n" r="G2">
+        <v>0</v>
+      </c>
+      <c t="s" r="H2">
         <v>24</v>
       </c>
-      <c t="n" r="F2">
-        <v>0</v>
-      </c>
-      <c t="n" r="G2">
-        <v>0</v>
-      </c>
-      <c t="s" r="H2">
-        <v>30</v>
-      </c>
       <c t="s" r="I2">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c t="s" r="K2">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row spans="1:11" r="3">
       <c t="s" r="A3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c t="s" r="B3">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c t="s" r="C3">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c t="s" r="D3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c t="s" r="E3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c t="n" r="F3">
         <v>0</v>
@@ -728,237 +656,237 @@
         <v>0</v>
       </c>
       <c t="s" r="H3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c t="s" r="I3">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c t="s" r="K3">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row spans="1:11" r="4">
       <c t="s" r="A4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c t="s" r="B4">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c t="s" r="C4">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c t="s" r="D4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c t="s" r="E4">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c t="n" r="F4">
         <v>0</v>
       </c>
       <c t="n" r="G4">
-        <v>1.900267706120712</v>
+        <v>2.0591556387356773</v>
       </c>
       <c t="s" r="H4">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c t="s" r="I4">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c t="s" r="K4">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row spans="1:11" r="5">
       <c t="s" r="A5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c t="s" r="B5">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c t="s" r="C5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c t="s" r="D5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c t="s" r="E5">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c t="n" r="F5">
-        <v>0.23449097845009706</v>
+        <v>0.25409757738496813</v>
       </c>
       <c t="n" r="G5">
         <v>0</v>
       </c>
       <c t="s" r="H5">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c t="s" r="I5">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c t="s" r="K5">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row spans="1:11" r="6">
       <c t="s" r="A6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c t="s" r="B6">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c t="s" r="C6">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c t="s" r="D6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c t="s" r="E6">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c t="n" r="F6">
-        <v>0.23449097845009706</v>
+        <v>0.25409757738496813</v>
       </c>
       <c t="n" r="G6">
-        <v>1.900267706120712</v>
+        <v>2.0591556387356773</v>
       </c>
       <c t="s" r="H6">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c t="s" r="I6">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c t="s" r="K6">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row spans="1:11" r="7">
       <c t="s" r="A7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c t="s" r="B7">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c t="s" r="C7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c t="s" r="D7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c t="s" r="E7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c t="n" r="F7">
-        <v>0.21462097289777637</v>
+        <v>0.23256617218191028</v>
       </c>
       <c t="n" r="G7">
         <v>0</v>
       </c>
       <c t="s" r="H7">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c t="s" r="I7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c t="s" r="K7">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row spans="1:11" r="8">
       <c t="s" r="A8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c t="s" r="B8">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c t="s" r="C8">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c t="s" r="D8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c t="s" r="E8">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c t="n" r="F8">
-        <v>0.21462097289777637</v>
+        <v>0.23256617218191028</v>
       </c>
       <c t="n" r="G8">
-        <v>1.900267706120712</v>
+        <v>2.0591556387356773</v>
       </c>
       <c t="s" r="H8">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c t="s" r="I8">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c t="s" r="K8">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row spans="1:11" r="9">
       <c t="s" r="A9">
+        <v>10</v>
+      </c>
+      <c t="s" r="B9">
+        <v>56</v>
+      </c>
+      <c t="s" r="C9">
+        <v>15</v>
+      </c>
+      <c t="s" r="D9">
         <v>16</v>
       </c>
-      <c t="s" r="B9">
-        <v>74</v>
-      </c>
-      <c t="s" r="C9">
-        <v>21</v>
-      </c>
-      <c t="s" r="D9">
-        <v>22</v>
-      </c>
       <c t="s" r="E9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c t="n" r="F9">
-        <v>0.06685106764429309</v>
+        <v>0.07244071582748975</v>
       </c>
       <c t="n" r="G9">
         <v>0</v>
       </c>
       <c t="s" r="H9">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c t="s" r="I9">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c t="s" r="K9">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row spans="1:11" r="10">
       <c t="s" r="A10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c t="s" r="B10">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c t="s" r="C10">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c t="s" r="D10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c t="s" r="E10">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c t="n" r="F10">
-        <v>0.06685106764429309</v>
+        <v>0.07244071582748975</v>
       </c>
       <c t="n" r="G10">
-        <v>1.9002677061207123</v>
+        <v>2.0591556387356773</v>
       </c>
       <c t="s" r="H10">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c t="s" r="I10">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c t="s" r="K10">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row spans="1:11" r="11">
@@ -966,31 +894,31 @@
         <v>1</v>
       </c>
       <c t="s" r="B11">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c t="s" r="C11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c t="s" r="D11">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c t="s" r="E11">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c t="n" r="F11">
-        <v>0.14162899114717895</v>
+        <v>0.15347107925362652</v>
       </c>
       <c t="n" r="G11">
         <v>0</v>
       </c>
       <c t="s" r="H11">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c t="s" r="I11">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c t="s" r="K11">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row spans="1:11" r="12">
@@ -998,31 +926,31 @@
         <v>2</v>
       </c>
       <c t="s" r="B12">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c t="s" r="C12">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c t="s" r="D12">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c t="s" r="E12">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c t="n" r="F12">
-        <v>0.14162899114717895</v>
+        <v>0.15347107925362652</v>
       </c>
       <c t="n" r="G12">
-        <v>1.900267706120712</v>
+        <v>2.0591556387356773</v>
       </c>
       <c t="s" r="H12">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c t="s" r="I12">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c t="s" r="K12">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row spans="1:11" r="13">
@@ -1030,222 +958,30 @@
         <v>3</v>
       </c>
       <c t="s" r="B13">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c t="s" r="C13">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c t="s" r="D13">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c t="s" r="E13">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c t="n" r="F13">
-        <v>0.14725366021735736</v>
+        <v>0</v>
       </c>
       <c t="n" r="G13">
         <v>0</v>
       </c>
       <c t="s" r="H13">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c t="s" r="I13">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c t="s" r="K13">
-        <v>60</v>
-      </c>
-    </row>
-    <row spans="1:11" r="14">
-      <c t="s" r="A14">
-        <v>4</v>
-      </c>
-      <c t="s" r="B14">
-        <v>85</v>
-      </c>
-      <c t="s" r="C14">
-        <v>66</v>
-      </c>
-      <c t="s" r="D14">
-        <v>22</v>
-      </c>
-      <c t="s" r="E14">
-        <v>27</v>
-      </c>
-      <c t="n" r="F14">
-        <v>0.14725366021735736</v>
-      </c>
-      <c t="n" r="G14">
-        <v>1.900267706120712</v>
-      </c>
-      <c t="s" r="H14">
-        <v>33</v>
-      </c>
-      <c t="s" r="I14">
-        <v>38</v>
-      </c>
-      <c t="s" r="K14">
-        <v>33</v>
-      </c>
-    </row>
-    <row spans="1:11" r="15">
-      <c t="s" r="A15">
-        <v>5</v>
-      </c>
-      <c t="s" r="B15">
-        <v>77</v>
-      </c>
-      <c t="s" r="C15">
-        <v>21</v>
-      </c>
-      <c t="s" r="D15">
-        <v>22</v>
-      </c>
-      <c t="s" r="E15">
-        <v>24</v>
-      </c>
-      <c t="n" r="F15">
-        <v>0.11813733588647983</v>
-      </c>
-      <c t="n" r="G15">
-        <v>0</v>
-      </c>
-      <c t="s" r="H15">
-        <v>43</v>
-      </c>
-      <c t="s" r="I15">
-        <v>48</v>
-      </c>
-      <c t="s" r="K15">
-        <v>43</v>
-      </c>
-    </row>
-    <row spans="1:11" r="16">
-      <c t="s" r="A16">
-        <v>6</v>
-      </c>
-      <c t="s" r="B16">
-        <v>86</v>
-      </c>
-      <c t="s" r="C16">
-        <v>66</v>
-      </c>
-      <c t="s" r="D16">
-        <v>22</v>
-      </c>
-      <c t="s" r="E16">
-        <v>27</v>
-      </c>
-      <c t="n" r="F16">
-        <v>0.11813733588647983</v>
-      </c>
-      <c t="n" r="G16">
-        <v>1.900267706120712</v>
-      </c>
-      <c t="s" r="H16">
-        <v>53</v>
-      </c>
-      <c t="s" r="I16">
-        <v>57</v>
-      </c>
-      <c t="s" r="K16">
-        <v>53</v>
-      </c>
-    </row>
-    <row spans="1:11" r="17">
-      <c t="s" r="A17">
-        <v>7</v>
-      </c>
-      <c t="s" r="B17">
-        <v>78</v>
-      </c>
-      <c t="s" r="C17">
-        <v>21</v>
-      </c>
-      <c t="s" r="D17">
-        <v>22</v>
-      </c>
-      <c t="s" r="E17">
-        <v>24</v>
-      </c>
-      <c t="n" r="F17">
-        <v>0.25183189141506995</v>
-      </c>
-      <c t="n" r="G17">
-        <v>0</v>
-      </c>
-      <c t="s" r="H17">
-        <v>61</v>
-      </c>
-      <c t="s" r="I17">
-        <v>65</v>
-      </c>
-      <c t="s" r="K17">
-        <v>61</v>
-      </c>
-    </row>
-    <row spans="1:11" r="18">
-      <c t="s" r="A18">
-        <v>8</v>
-      </c>
-      <c t="s" r="B18">
-        <v>87</v>
-      </c>
-      <c t="s" r="C18">
-        <v>66</v>
-      </c>
-      <c t="s" r="D18">
-        <v>22</v>
-      </c>
-      <c t="s" r="E18">
-        <v>27</v>
-      </c>
-      <c t="n" r="F18">
-        <v>0.25183189141506995</v>
-      </c>
-      <c t="n" r="G18">
-        <v>1.9002677061207118</v>
-      </c>
-      <c t="s" r="H18">
-        <v>34</v>
-      </c>
-      <c t="s" r="I18">
-        <v>39</v>
-      </c>
-      <c t="s" r="K18">
-        <v>34</v>
-      </c>
-    </row>
-    <row spans="1:11" r="19">
-      <c t="s" r="A19">
-        <v>9</v>
-      </c>
-      <c t="s" r="B19">
-        <v>79</v>
-      </c>
-      <c t="s" r="C19">
-        <v>66</v>
-      </c>
-      <c t="s" r="D19">
-        <v>23</v>
-      </c>
-      <c t="s" r="E19">
-        <v>24</v>
-      </c>
-      <c t="n" r="F19">
-        <v>0</v>
-      </c>
-      <c t="n" r="G19">
-        <v>0</v>
-      </c>
-      <c t="s" r="H19">
-        <v>44</v>
-      </c>
-      <c t="s" r="I19">
-        <v>49</v>
-      </c>
-      <c t="s" r="K19">
         <v>44</v>
       </c>
     </row>
